--- a/500all/speech_level/speeches_CHRG-114hhrg99852.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99852.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,39 +52,24 @@
     <t>412536</t>
   </si>
   <si>
-    <t>Rodney Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Mr. Chairman. Let us all bow our heads. Thank you, Lord, for allowing us to come together again in this Committee. Thank you for the witnesses being able to get here safely. Let us all work together and understand the issues of importance are not that important to our Lord and Savior. We are thankful for everything that He does on our behalf each and every day and I ask this in the name of our Lord and Savior, Jesus Christ.    The Chairman. Thank you, Rodney. Well, good morning, and welcome to today's hearing. This Committee is charged with the responsibility of representing rural America and the economies that drive those communities. As such, we will continue to diligently review the farm economy, especially given the recent 56 percent drop in net farm income and the hard times that invariably come along with that. I, along with many Members of this Committee, have often stated that agriculture is the backbone of rural America. However, as the Committee with responsibility for all of rural America, it is vitally important that we acknowledge other industries that have provided a significant number of jobs and revenue for our rural communities.    Today's hearing begins with that discussion as we review how oil and gas production impacts the rural economy. Energy and the price of energy has an obvious direct impact on the inputs for farmers and ranchers. Not quite as intuitively, though, the energy sector also provides income and revenue for rural residents and their local communities in the form of salaries, royalty payments, and tax revenues. In District 11, agriculture is a leading industry. However, many of the biggest employers in the 11th District of Texas revolve around oil and gas production. These businesses provide a significant number of good-paying jobs for Americans.    In fact, the Bureau of Labor Statistics claims that jobs in this sector have an average income that is twice as high as the national average. Although I know that every district is not like west Texas, oil and gas production impacts rural communities across the United States. These quality off-the-farm jobs provide rural America the ability to retain young people with new opportunities and attract new residents. The oil and gas industry brings income into rural communities which, in turn, increases the standard of living for its residents. This increased revenue gives rural communities the ability to improve the quality of life for their residents through increased capital investments.    In a 2011 study by PWC near the height of the recent oil boom, cited that the oil and gas sector directly employed 9.8 million people. A significant number of these jobs are in the rural areas of Wyoming, Texas, North Dakota, Oklahoma, Louisiana, and Pennsylvania, employing as many as 20 percent of the state's population.    Unfortunately, what some fail to realize is that oil and gas production creates thousands of upstream jobs and downstream jobs as well, and many, if not most of these are also in the rural economies. We all recognize that the oil industry today is more bust than boom, and that is why today's hearing is even more important.    I believe that the general public only views this industry as executives running large oil companies and charging too much for a gallon of gasoline. Today, we will hear from a group of individuals whose rural communities and livelihoods are directly impacted by oil and gas production. In these lean times, we must remember the millions of individuals, many in rural America, who are employed up and down the supply chain.    I want to thank each of our witnesses for taking the time away from their jobs to be here today. I look forward to their testimony.</t>
   </si>
   <si>
     <t>400316</t>
   </si>
   <si>
-    <t>Collin C. Peterson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Peterson. Thank you, Mr. Chairman. And I welcome the witnesses.    Oil and gas production can have a positive impact on the rural economy. In my State of Minnesota, we don't have any oil or gas production, but we felt the impact of the North Dakota oil boom by having increased job opportunities in my district. At the same time, the market has recently exposed some of the challenges that come along with oil and gas production, including improving infrastructure like rail pipelines or roads that transport the oil during boom times, or strengthening safety-net programs that could keep our rural economies and communities afloat during oil price swings are all areas that we should further explore.    Oil and gas development has certainly helped some farmers in rural communities, and helped them weather the recent downturn in commodity prices, and this demonstrates the importance of a diverse rural economy and the role that these types of value-added systems play in keeping us afloat.    Agriculture is no stranger to fluctuating commodity prices, and we have all witnessed the impact of extreme highs and lows. When commodity prices drop, rural communities, landowners, farmers, and businesses all feel the impact, and this is why it is important that we maintain a strong safety net and support a wide range of opportunities for rural citizens.    I look forward to hearing the witnesses and their thoughts on the topics.    And I yield back.    The Chairman. I thank the gentleman.    The chair would request that other Members submit their opening statements for the record so that the witnesses may begin their testimony to ensure that there is ample time for our questions.    I would like to welcome today to our witness table three individuals: The Honorable Martin Causer, who is the Majority Chairman of the Agriculture and Rural Affairs Committee for the Pennsylvania House of Representatives from Harrisburg, Pennsylvania; Ms. Angie Sims, she is the CEO of Buster's Well Service, Kermit, Texas, on behalf of the Association of Energy Service Companies. And as an aside, I got to represent Ms. Sims for 8 years while Kermit was in District 11, and she is now ably represented by Will Hurd. So, Angie, it is great for you to be here with us today. And Ms. Jackie Root, who is the President of the National Association of Royalty Owners, of the Pennsylvania chapter, Lawrenceville, Pennsylvania, on behalf of the National Association of Royalty Owners.    With that, Mr. Causer, you have 5 minutes, and the floor is yours.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Causer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Causer. Thank you, Mr. Chairman, and Members of the Committee.    I want to thank you for the opportunity to be here today to testify on my perspective relating to the impact of the oil and gas industry on rural economies. I was born and raised on a dairy farm in McKean County, Pennsylvania, elected to the State House of Representatives in 2002, and currently serve as the Majority Chairman of the House Agriculture and Rural Affairs Committee.    In Pennsylvania, we have had what we call conventional drilling for over 150 years. In Titusville, Pennsylvania, just west of my district, is the home of the world's first oil well and the birthplace of the modern petroleum industry. The City of Bradford, best known as the home of the Zippo lighter, also hosts the oldest continuously operating oil refinery in the world.    Also in Bradford, you have to drive around a crude oil well to use the drive-through at the McDonald's restaurant. So as you can see, we have a lot of oil wells in our community, and oil and gas production has been very important in many of our rural communities, and employs a lot of people in our communities.    Starting in the late 2000s, deep natural gas wells started to be drilled, what we call unconventional drilling, came to Pennsylvania. This created many, many jobs, a lot of increased spending at local hotels and retail stores. Between 2007 and 2014, $2.1 billion in state taxes were paid from this activity. In addition, we created, in Pennsylvania, an impact fee that is levied on each unconventional well that is drilled to provide for impacts to rural communities with 60 percent of that revenue going back to the local community, and 40 percent going to the state to address impacts such as infrastructure, the environment, housing, and emergency preparedness.    This has also had a significant effect on farmers at a time when many farmers were struggling just to pay their taxes. They could barely upgrade their equipment and expand their operations. The advent of unconventional drilling gave them additional revenue to be able to expand their operations. And instead of retiring the land, they were actually able to keep it in production. So it has really benefited farmers in our state.    However, we know that the industry is in some tough times right now with the low price of natural gas. The conventional industry, the number of wells drilled has been declining steadily, and that, coupled with the regulatory climate, has been difficult for the industry in Pennsylvania. For the unconventional industry, a few years ago, we had nearly 120 unconventional rigs operating in Pennsylvania. Now, today, we are down to about 20. So the industry has seen some tough times, and there are many people unemployed in the oil and gas industry. And as you can imagine, in communities where oil and gas is the major employer, this has been very difficult.    But what is next is we have to expand our pipeline network. We have to look for additional opportunities. We have two potential Marcellus-powered electrical plants that are going to go online in Pennsylvania, and one plant alone could provide energy for as many as one million homes. So the this is an opportunity for our state. Royal Dutch Shell is also looking at the possibility of opening an ethane cracker plant, just outside of Pittsburgh, which would put thousands of people to work.    So, in summary, rural communities, like the ones I represent, have long relied on the oil and gas industry to support our local economy. And as we know, virtually every American relies on the industry as well. It is important for us to work together, whether a state government or our national leaders, to make sure that we don't over-regulate the industry. We need reasonable, responsible, regulations, but this is an opportunity for us to provide good-paying jobs. And in Pennsylvania, we need those jobs desperately.    So I appreciate the opportunity. I have provided extensive testimony to the Committee, and I would be glad to answer any questions that any of the Members might have.</t>
   </si>
   <si>
-    <t>Sims</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Sims. Good morning, Chairman Conaway, Ranking Member, and distinguished Members of the Committee. Thank you for the opportunity to appear before you today and discuss the role of energy service companies in rural America. Please forgive my nervousness. I am just a small-town girl, and I am not used to this. So I will do my best.    Again, my name is Angie Sims. I currently serve as the President and CEO of Buster's Well Service. It is a company that my grandfather started in 1963. I am the third generation running that company.    At this time, we have a total of 19 employees. When I started in 1999, we had a total of 60 employees, and we were running 12 service rigs--pulling units--at the time, and have since declined due to the fall of the oil prices and just getting the business smaller and more attainable.    I am also testifying today on behalf of the Association of Energy Service Companies. The AESC was first established in 1956 in Odessa, Texas. The organization originally focused on well-servicing industries, but has grown to encompass the total energy industry, including upstream oil and gas services, such as wireline, coiled tubing, hot oilers, roustabout services, snubbing, swabbing, fracking, pressure pumping, and oil field trucking.    The vast majority of our 700+ member companies are small businesses and located in, and operating in, rural communities. My hometown of Kermit, Texas, is the county seat of Winkler County, Texas. The city was founded in 1910 and named after Kermit Roosevelt whose father, Teddy Roosevelt, had visited the area shortly before a hunting trip. Oil was discovered near Kermit in 1926 in the Hendrick oil field, and the city and its economy has been closely linked to oil production ever since. The Hendrick field is still producing to this day.    Like other businesses operating in rural America, our greatest strength is our people. They are hard-working and very loyal. Small businesses in rural areas must adhere to strict financial discipline, or as we call it, simple household economics. You don't spend more than you have, and you take care of what you have.    Similar to the agriculture and ranching operations, whose economics are often tied to commodity prices that we cannot control, oil field services go through boom and bust cycles, but it is our people and our commitment to each other and our communities that allows us to make it through the hard times and make responsible decisions in better times.    We are currently going through some difficult times. According to the monthly report by InghamEcon, LLC, the Texas Permian Basin Petroleum Index dropped to its lowest level since June of 2010. The rig counts are down by 50 percent--those are drilling rigs--compared to its year-ago level. The most recent weekly rig count showed the numbers have dropped again to 130, a decrease of 72 percent.    Despite the fact that we are currently suffering through this downturn due to low oil prices, the oil field services industries continue to provide good-paying jobs throughout rural America, and we are poised to grow again when production ramps back up.    In Texas, we have been through this before, and we are, undoubtedly, going to go through it again. But I want to give you some of the stats just to show the importance the industry has in my community and some of the investments we have been able to make as a result of the energy development in the oil field service industries.    Today, Kermit has close to 6,000 residents, and our county population sits around 8,000. While many different businesses operate in our area, the oil and gas industry is the mainstay of our income. There are 849 producing wells, producing leases, 117 producing operators, and 12,588 drilled wells in the county alone.    According to the County Tax Assessor and Collector for Winkler County, mineral values and property values have increased by well over $1 million from 2010 to 2014. The City of Kermit also saw huge increases in building permits, electrical permits, and plumbing permits. The local sales and use tax rose 110 percent between 2010 and 2014. Both of our school districts have enjoyed taxpayers agreeing to build new schools, and enrollment in both of those schools have gone up in the last years.    I am short on time. Thank you for your time, and I look forward to answering any questions.</t>
   </si>
   <si>
-    <t>Root</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Root. Chairman Conaway, Ranking Member Peterson, and Members of the Committee, it is an honor to speak to you regarding this important issue, and thank you very much for the invitation. I am Jackie Root from Lawrenceville, Pennsylvania. I speak today on behalf of the National Association of Royalty Owners, where I serve as the Pennsylvania state chapter President.    Even though our producing minerals may be in any of the 33 producing states, NARO members live in all 50 states. An estimated 8\\1/2\\ to 12 million citizens receive royalty income from the production of their private mineral rights. From a member survey a few years ago, the average NARO member is 60 years old, a widow, and makes less than $500 per month in royalty income. The United States is the only former colony that upon achieving independence, awarded the ownership of minerals to private citizens instead of to the state. This uniquely American model was suggested by Thomas Jefferson. His concept has helped make us a strong nation and is, today, enabling America's rise to become the world's dominant energy producer.    About 70 percent of the mineral estate in the lower 48 is private property owned by individual citizens. A study conducted by Montana University in 2012, estimated that roughly 77 percent of oil and 81 percent of natural gas produced onshore was produced on private property. According to the Energy Information Administration, the average price for oil is now about 59 percent less, and natural gas about 25 percent less. And this is a real significant hit on individuals, like myself, who rely on this income for part of our livelihood.    We have provided additional information on the ownership and impacts we see across the country in the written testimony, and I will spend the rest of my time on my personal story.    My husband, Cliff, and I are first generation farmers. Dairy was our commodity for 35 years, shifting to a cow/calf beef operation in 2009. For 24 years, in a crop field dubbed the gas well field, we mowed, planted, and harvested around a steel pipe that was the site of natural gas exploration well, drilled and plugged in 1948. In 2000, a landman approached us to lease that land once again for possible exploration, and we now host a producing Marcellus Shale well on our farm, just 1,200\x7f from that old pipe.    Our well was completed in 2008. In 2009 and 2010, 31 more wells were completed on well pads within our township. I estimate that over 700 royalty owners received checks each month in just our little township, including farmers, retirees, widows, young couples, businesses, churches, municipalities, and cemeteries. Like many farmers, we have used this income to pay off debt, change enterprises, help with college expenses, fund requirement accounts, and maybe buy a horse or two. The constant stress of fluctuating commodity prices and unpredictable weather is softened a bit with additional income from leasing, royalties, and pipeline right-of-way. Over the long-term, I believe natural gas development will actually preserve our precious open space; successful farmers will farm the land rather than subdivide it.    This income also finds its way into our local economy, and I can quickly name friends and neighbors so thankful for extra income that was life-changing, and it is not all about instant millionaires.    Current market conditions have curtailed new drilling projects, and the lack of new pipeline capacity has had a dramatic effect on natural gas prices. This time in 2012, we received $2.73 per mcf compared to just $1.48 this month. Royalty income is down, leasing is sparse, layoffs in the oil patch now include many of our local folks, and many businesses created during the boom are struggling.    We appreciated the July 2015 hearing this Committee conducted that led to repeal of the oil export ban, recognizing the need to participate in world markets.    Trading of LNG and ethane in world markets will be just as important to the Northeast with production of both wet and dry natural gas. Natural gas development in our township and other townships, just like it across Pennsylvania, has been a real success story. We hope that our leaders will support an energy policy that will keep this moving forward.    Reduced commodity prices have placed hardship on the oil and gas industry, service industries, Federal and state local tax collections, and private royalty owners. This is a result of the free market system that we know our members believe strongly in. We, therefore, ask this Committee to, please, keep this in mind when considering what could become harmful Federal policies like removal of the percentage depletion tax deductions that royalty owners have had the ability to utilize since the 1920s.    Thank you, again, for the opportunity to present the collective views of millions of private property owners, and I will be happy to answer any questions.</t>
   </si>
   <si>
@@ -166,9 +151,6 @@
     <t>412317</t>
   </si>
   <si>
-    <t>Glenn Thompson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thompson. Mr. Chairman, thank you so much for this hearing.    And thank you to the witnesses, for bringing your expertise to Washington on this issue. This is all about our rural economy, and I think that, obviously, the Agriculture Committee is committed to make sure we have a strong, robust, rural economy all across this country. And today, we are focusing on oil and gas.    Chairman Causer, land-grant universities play a critical role in our communities, specifically with research and services provided by extension services, extension activities. I know in Pennsylvania, we have been blessed to see much of this work applied to our robust agriculture industry, as well as more recent economic activity such as development of the Marcellus Shale. In your view, how have our land-grant university extension services activities been beneficial for farmers and landowners with relation to the Marcellus?</t>
   </si>
   <si>
@@ -211,9 +193,6 @@
     <t>412214</t>
   </si>
   <si>
-    <t>Timothy J. Walz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walz. Well, thank you, Mr. Chairman.    Thank you all for being here. I appreciate what you are saying in representing a rural district. Also, as a geographer, I understand that location is everything many times. And your states are blessed with, and our nation is blessed with resources that we can use to make ourselves energy independent, and that is not only good economically, it is good national security-wise.    I would take it just one step further. In my district, in southern Minnesota, we too are blessed with the ability to produce energy, and that comes in the form of wind, and solar, and biofuels. And I bring this up only because the issues you are talking about and the positive returns to the community are exactly the same things we see in that. And the cautions that some of you said, Ms. Root, about policies that infringe upon that, we need to be careful of.    We should not be in the business of picking winners and losers, and we should make sure that these industries have the opportunity. So I say that to my colleagues that I am appreciative, and we want to see your states thrive, but I also think we need to make sure that we are talking about the impact to rural communities from a variety of perspectives.    And I know this is not your area of expertise, but I am assuming you see some of these other energy sources also in Pennsylvania, Mr. Causer. If you can tell me, is it the same type of situation?</t>
   </si>
   <si>
@@ -241,9 +220,6 @@
     <t>412557</t>
   </si>
   <si>
-    <t>Ann M. Kuster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kuster. Thank you, Mr. Chairman.    And I just want to echo my colleague, that we don't have oil and gas wells in New Hampshire where I am from, but we do have, in the rural communities, particularly bioenergy is a very big piece for us. We burn a lot of wood and wood chips, and that is a big growing industry for my timber interests.    So I am interested in the siting issues, since we do have siting issues. And in particular, in New Hampshire right now, across the southern tier of my district, is the proposal for a very substantial natural gas pipeline. And this will be coming from the Marcellus Shale gas from Pennsylvania. It terminates in Dracut, Massachusetts. And if you know your New England geography, you might wonder why it goes to New Hampshire. And that is what we all are wondering now as well. It is proposed to cross 18 towns in my district. But we won't actually get the benefit of it.    So, not surprisingly, I have homeowners and community leaders very worked up about this pipeline. They are very, very concerned. And particularly not just environmental issues, it crosses back and forth in beautiful rivers and streams and protected areas. And it is not very well laid out, let me say.    So I am dealing with a lot of concern. But much more importantly for me it is a public safety issue for my communities. And in particular, I want to ask Representative Causer, because I know you have a background as a emergency service provider. So here is the situation: and these are very small towns, by the way. These are towns of 7,000 people. These are volunteer fire departments, so just to set the stage for what I am concerned about. And in particular, a compressor station in a town called New Ipswich that I have been to. Right next door to the elementary school is where it is proposed with children from kindergarten through 4th grade. So I just want to ask you--and thank you all for your public service. I think most of you have served the public in your various roles.    In this situation where the town does not have the appropriate resources to respond to a blow-down or venting or other incidents that might occur, what would you recommend? Do you think this is a smart place to put this compressor station? What would you recommend in rural communities with the volunteer first responders, how we would respond to a major incident?    And, by the way, just to give you a sense, this is probably 40 miles from any kind of substantial first responders in Manchester or Keene, New Hampshire.</t>
   </si>
   <si>
@@ -268,9 +244,6 @@
     <t>412400</t>
   </si>
   <si>
-    <t>Eric A. "Rick" Crawford</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Crawford. Thank you, Mr. Chairman.    Ms. Sims, Kermit, Texas, I am not entirely unfamiliar with west Texas, but I know it is a small town, and most of us on the Agriculture Committee know a little something about small towns.    Do you actually live in town, or do you live out in the country?</t>
   </si>
   <si>
@@ -412,18 +385,12 @@
     <t>412642</t>
   </si>
   <si>
-    <t>Brad Ashford</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ashford. I don't have any questions, Mr. Chairman. Thanks.    The Chairman. All right. Mr. Yoho, for 5 minutes.</t>
   </si>
   <si>
     <t>412525</t>
   </si>
   <si>
-    <t>Ted S. Yoho</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Mr. Chairman.    I appreciate you, all, being here.    Ms. Root, I see you are a cattle farmer. Congratulations. I am a veterinarian, worked on plenty of Herefords, and that is one of my favorite breeds.    What have the positive benefits been from the oil production in your area on ag, and what are the negatives that you have seen?</t>
   </si>
   <si>
@@ -559,9 +526,6 @@
     <t>412286</t>
   </si>
   <si>
-    <t>Ann Kirkpatrick</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Kirkpatrick. Thank you. I just have a couple of questions, if the Chairman doesn't mind.    The Chairman. Sure. Absolutely. You are recognized for 5 minutes.</t>
   </si>
   <si>
@@ -599,9 +563,6 @@
   </si>
   <si>
     <t>412558</t>
-  </si>
-  <si>
-    <t>Michelle Lujan Grisham</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Lujan Grisham. Thank you, Mr. Chairman. Agriculture and the oil and gas sector are really important industries, certainly, in my state as well as for most of the Members on this Committee. And they both make substantial contributions. And in fact, ag and food processing industries contribute $10.6 billion to our economy. That is roughly 12 percent of our GDP. And the oil and gas industry do about $11.3 billion, so that is about 14 percent of our GDP. So I understand the aspect here that we want to make sure that these are coordinated, productive, partnering industries to the highest degree possible, given that they neighbor up, if you will, in most of the rural and frontier aspects of the country, and including in New Mexico.    You probably also are aware, the panel, and I know the Committee is, that in my state we are experiencing, like much of the Southwest, one of the worst droughts. We are part of a 100 year drought, and besides the fact that we are always on fire starting now through the fall, it is a significant factor for both these industries.    Do you have any thoughts or suggestions, given water scarcity issues in general, about ways in which both ag and oil and gas can be innovative in addressing the lack of water resources and not to put themselves in a position where they are actually competing for that same resource? I would be very interested in anyone on the panel's thoughts about that.</t>
@@ -1039,11 +1000,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1063,13 +1022,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1089,13 +1046,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1115,13 +1070,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1141,13 +1094,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1167,13 +1118,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1193,13 +1142,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1219,13 +1166,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1245,13 +1190,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1271,13 +1214,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1297,13 +1238,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1323,13 +1262,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1349,13 +1286,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1375,13 +1310,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1401,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1427,13 +1358,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1453,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1479,13 +1406,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1505,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1531,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1557,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1583,13 +1502,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1609,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1635,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1661,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1687,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1713,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1739,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1765,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1791,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1817,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1843,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1869,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1895,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1921,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
         <v>49</v>
-      </c>
-      <c r="G36" t="s">
-        <v>50</v>
-      </c>
-      <c r="H36" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1947,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1973,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1999,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2025,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
-      </c>
-      <c r="G40" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2051,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2077,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
-      </c>
-      <c r="G42" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2103,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2129,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2155,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2181,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2207,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
-      </c>
-      <c r="G47" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2233,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2259,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2285,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2311,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2337,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2363,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
-      </c>
-      <c r="G53" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2389,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2415,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
-      </c>
-      <c r="G55" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2441,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2467,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>74</v>
-      </c>
-      <c r="G57" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2493,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2519,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
+        <v>67</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
         <v>74</v>
-      </c>
-      <c r="G59" t="s">
-        <v>75</v>
-      </c>
-      <c r="H59" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2545,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>83</v>
-      </c>
-      <c r="G60" t="s">
-        <v>84</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2571,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2597,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G62" t="s">
-        <v>84</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2623,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2649,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>83</v>
-      </c>
-      <c r="G64" t="s">
-        <v>84</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2675,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2701,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>83</v>
-      </c>
-      <c r="G66" t="s">
-        <v>84</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2727,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2753,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>83</v>
-      </c>
-      <c r="G68" t="s">
+        <v>75</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
         <v>84</v>
-      </c>
-      <c r="H68" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2779,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2805,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>83</v>
-      </c>
-      <c r="G70" t="s">
-        <v>84</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2831,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2857,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>83</v>
-      </c>
-      <c r="G72" t="s">
-        <v>84</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2883,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2909,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>83</v>
-      </c>
-      <c r="G74" t="s">
-        <v>84</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2935,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2961,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>83</v>
-      </c>
-      <c r="G76" t="s">
-        <v>84</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2987,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3013,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>83</v>
-      </c>
-      <c r="G78" t="s">
-        <v>84</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3039,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3065,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>83</v>
-      </c>
-      <c r="G80" t="s">
-        <v>84</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3091,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3117,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>83</v>
-      </c>
-      <c r="G82" t="s">
-        <v>84</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3143,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3171,11 +2968,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3195,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3223,11 +3016,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3247,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3275,11 +3064,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3299,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
-      </c>
-      <c r="G89" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3327,11 +3112,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3351,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
-      </c>
-      <c r="G91" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3379,11 +3160,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3403,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
-      </c>
-      <c r="G93" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3431,11 +3208,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3455,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>17</v>
-      </c>
-      <c r="G95" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3483,11 +3256,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3507,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
-      </c>
-      <c r="G97" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3535,11 +3304,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3559,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3587,11 +3352,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3611,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
-      </c>
-      <c r="G101" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3639,11 +3400,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3663,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
-      </c>
-      <c r="G103" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3691,11 +3448,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3715,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
-      </c>
-      <c r="G105" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3743,11 +3496,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3767,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>131</v>
-      </c>
-      <c r="G107" t="s">
-        <v>132</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3793,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>134</v>
-      </c>
-      <c r="G108" t="s">
-        <v>135</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3819,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
-      </c>
-      <c r="G109" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3845,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>134</v>
-      </c>
-      <c r="G110" t="s">
-        <v>135</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3871,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>17</v>
-      </c>
-      <c r="G111" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3897,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>134</v>
-      </c>
-      <c r="G112" t="s">
-        <v>135</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3923,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
-      </c>
-      <c r="G113" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3949,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>134</v>
-      </c>
-      <c r="G114" t="s">
-        <v>135</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3975,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
-      </c>
-      <c r="G115" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4001,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>134</v>
-      </c>
-      <c r="G116" t="s">
-        <v>135</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4027,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>17</v>
-      </c>
-      <c r="G117" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4053,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>134</v>
-      </c>
-      <c r="G118" t="s">
+        <v>124</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
         <v>135</v>
-      </c>
-      <c r="H118" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4079,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>17</v>
-      </c>
-      <c r="G119" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4105,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>134</v>
-      </c>
-      <c r="G120" t="s">
-        <v>135</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4131,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>17</v>
-      </c>
-      <c r="G121" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4157,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>134</v>
-      </c>
-      <c r="G122" t="s">
-        <v>135</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4183,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
-      </c>
-      <c r="G123" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4209,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>134</v>
-      </c>
-      <c r="G124" t="s">
-        <v>135</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4235,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>17</v>
-      </c>
-      <c r="G125" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4261,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>134</v>
-      </c>
-      <c r="G126" t="s">
-        <v>135</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4287,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>49</v>
-      </c>
-      <c r="G127" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4313,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
-      </c>
-      <c r="G128" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4339,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>49</v>
-      </c>
-      <c r="G129" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4365,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>17</v>
-      </c>
-      <c r="G130" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4391,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>49</v>
-      </c>
-      <c r="G131" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4417,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
-      </c>
-      <c r="G132" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4443,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>49</v>
-      </c>
-      <c r="G133" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4469,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>17</v>
-      </c>
-      <c r="G134" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4495,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>49</v>
-      </c>
-      <c r="G135" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4521,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>64</v>
-      </c>
-      <c r="G136" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4547,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>131</v>
-      </c>
-      <c r="G137" t="s">
-        <v>132</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4573,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>131</v>
-      </c>
-      <c r="G138" t="s">
-        <v>132</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4599,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>17</v>
-      </c>
-      <c r="G139" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4625,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>17</v>
-      </c>
-      <c r="G140" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4651,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>17</v>
-      </c>
-      <c r="G141" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4677,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>17</v>
-      </c>
-      <c r="G142" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4703,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>17</v>
-      </c>
-      <c r="G143" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4729,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>17</v>
-      </c>
-      <c r="G144" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4755,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>17</v>
-      </c>
-      <c r="G145" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4781,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>17</v>
-      </c>
-      <c r="G146" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4807,13 +4478,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>17</v>
-      </c>
-      <c r="G147" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4833,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>17</v>
-      </c>
-      <c r="G148" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4859,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>17</v>
-      </c>
-      <c r="G149" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4885,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>17</v>
-      </c>
-      <c r="G150" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4911,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>17</v>
-      </c>
-      <c r="G151" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4937,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>180</v>
-      </c>
-      <c r="G152" t="s">
-        <v>181</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4963,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>180</v>
-      </c>
-      <c r="G153" t="s">
-        <v>181</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4989,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>17</v>
-      </c>
-      <c r="G154" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5015,13 +4670,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>180</v>
-      </c>
-      <c r="G155" t="s">
-        <v>181</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5041,13 +4694,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>17</v>
-      </c>
-      <c r="G156" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5067,13 +4718,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>180</v>
-      </c>
-      <c r="G157" t="s">
-        <v>181</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5093,13 +4742,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>17</v>
-      </c>
-      <c r="G158" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5119,13 +4766,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>180</v>
-      </c>
-      <c r="G159" t="s">
-        <v>181</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5145,13 +4790,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>17</v>
-      </c>
-      <c r="G160" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5171,13 +4814,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>180</v>
-      </c>
-      <c r="G161" t="s">
-        <v>181</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5197,13 +4838,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>17</v>
-      </c>
-      <c r="G162" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5223,13 +4862,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>180</v>
-      </c>
-      <c r="G163" t="s">
+        <v>169</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
         <v>181</v>
-      </c>
-      <c r="H163" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5249,13 +4886,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>194</v>
-      </c>
-      <c r="G164" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5275,13 +4910,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>17</v>
-      </c>
-      <c r="G165" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5301,13 +4934,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>194</v>
-      </c>
-      <c r="G166" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5327,13 +4958,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>17</v>
-      </c>
-      <c r="G167" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5353,13 +4982,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>194</v>
-      </c>
-      <c r="G168" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5379,13 +5006,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>17</v>
-      </c>
-      <c r="G169" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5405,13 +5030,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>194</v>
-      </c>
-      <c r="G170" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5431,13 +5054,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>17</v>
-      </c>
-      <c r="G171" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5457,13 +5078,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>194</v>
-      </c>
-      <c r="G172" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5483,13 +5102,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>17</v>
-      </c>
-      <c r="G173" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5509,13 +5126,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>194</v>
-      </c>
-      <c r="G174" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5535,13 +5150,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>17</v>
-      </c>
-      <c r="G175" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5561,13 +5174,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>194</v>
-      </c>
-      <c r="G176" t="s">
+        <v>182</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
         <v>195</v>
-      </c>
-      <c r="H176" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99852.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99852.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,24 +55,45 @@
     <t>412536</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Rodney</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Mr. Chairman. Let us all bow our heads. Thank you, Lord, for allowing us to come together again in this Committee. Thank you for the witnesses being able to get here safely. Let us all work together and understand the issues of importance are not that important to our Lord and Savior. We are thankful for everything that He does on our behalf each and every day and I ask this in the name of our Lord and Savior, Jesus Christ.    The Chairman. Thank you, Rodney. Well, good morning, and welcome to today's hearing. This Committee is charged with the responsibility of representing rural America and the economies that drive those communities. As such, we will continue to diligently review the farm economy, especially given the recent 56 percent drop in net farm income and the hard times that invariably come along with that. I, along with many Members of this Committee, have often stated that agriculture is the backbone of rural America. However, as the Committee with responsibility for all of rural America, it is vitally important that we acknowledge other industries that have provided a significant number of jobs and revenue for our rural communities.    Today's hearing begins with that discussion as we review how oil and gas production impacts the rural economy. Energy and the price of energy has an obvious direct impact on the inputs for farmers and ranchers. Not quite as intuitively, though, the energy sector also provides income and revenue for rural residents and their local communities in the form of salaries, royalty payments, and tax revenues. In District 11, agriculture is a leading industry. However, many of the biggest employers in the 11th District of Texas revolve around oil and gas production. These businesses provide a significant number of good-paying jobs for Americans.    In fact, the Bureau of Labor Statistics claims that jobs in this sector have an average income that is twice as high as the national average. Although I know that every district is not like west Texas, oil and gas production impacts rural communities across the United States. These quality off-the-farm jobs provide rural America the ability to retain young people with new opportunities and attract new residents. The oil and gas industry brings income into rural communities which, in turn, increases the standard of living for its residents. This increased revenue gives rural communities the ability to improve the quality of life for their residents through increased capital investments.    In a 2011 study by PWC near the height of the recent oil boom, cited that the oil and gas sector directly employed 9.8 million people. A significant number of these jobs are in the rural areas of Wyoming, Texas, North Dakota, Oklahoma, Louisiana, and Pennsylvania, employing as many as 20 percent of the state's population.    Unfortunately, what some fail to realize is that oil and gas production creates thousands of upstream jobs and downstream jobs as well, and many, if not most of these are also in the rural economies. We all recognize that the oil industry today is more bust than boom, and that is why today's hearing is even more important.    I believe that the general public only views this industry as executives running large oil companies and charging too much for a gallon of gasoline. Today, we will hear from a group of individuals whose rural communities and livelihoods are directly impacted by oil and gas production. In these lean times, we must remember the millions of individuals, many in rural America, who are employed up and down the supply chain.    I want to thank each of our witnesses for taking the time away from their jobs to be here today. I look forward to their testimony.</t>
   </si>
   <si>
     <t>400316</t>
   </si>
   <si>
+    <t>Peterson</t>
+  </si>
+  <si>
+    <t>Collin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Peterson. Thank you, Mr. Chairman. And I welcome the witnesses.    Oil and gas production can have a positive impact on the rural economy. In my State of Minnesota, we don't have any oil or gas production, but we felt the impact of the North Dakota oil boom by having increased job opportunities in my district. At the same time, the market has recently exposed some of the challenges that come along with oil and gas production, including improving infrastructure like rail pipelines or roads that transport the oil during boom times, or strengthening safety-net programs that could keep our rural economies and communities afloat during oil price swings are all areas that we should further explore.    Oil and gas development has certainly helped some farmers in rural communities, and helped them weather the recent downturn in commodity prices, and this demonstrates the importance of a diverse rural economy and the role that these types of value-added systems play in keeping us afloat.    Agriculture is no stranger to fluctuating commodity prices, and we have all witnessed the impact of extreme highs and lows. When commodity prices drop, rural communities, landowners, farmers, and businesses all feel the impact, and this is why it is important that we maintain a strong safety net and support a wide range of opportunities for rural citizens.    I look forward to hearing the witnesses and their thoughts on the topics.    And I yield back.    The Chairman. I thank the gentleman.    The chair would request that other Members submit their opening statements for the record so that the witnesses may begin their testimony to ensure that there is ample time for our questions.    I would like to welcome today to our witness table three individuals: The Honorable Martin Causer, who is the Majority Chairman of the Agriculture and Rural Affairs Committee for the Pennsylvania House of Representatives from Harrisburg, Pennsylvania; Ms. Angie Sims, she is the CEO of Buster's Well Service, Kermit, Texas, on behalf of the Association of Energy Service Companies. And as an aside, I got to represent Ms. Sims for 8 years while Kermit was in District 11, and she is now ably represented by Will Hurd. So, Angie, it is great for you to be here with us today. And Ms. Jackie Root, who is the President of the National Association of Royalty Owners, of the Pennsylvania chapter, Lawrenceville, Pennsylvania, on behalf of the National Association of Royalty Owners.    With that, Mr. Causer, you have 5 minutes, and the floor is yours.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Causer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Causer. Thank you, Mr. Chairman, and Members of the Committee.    I want to thank you for the opportunity to be here today to testify on my perspective relating to the impact of the oil and gas industry on rural economies. I was born and raised on a dairy farm in McKean County, Pennsylvania, elected to the State House of Representatives in 2002, and currently serve as the Majority Chairman of the House Agriculture and Rural Affairs Committee.    In Pennsylvania, we have had what we call conventional drilling for over 150 years. In Titusville, Pennsylvania, just west of my district, is the home of the world's first oil well and the birthplace of the modern petroleum industry. The City of Bradford, best known as the home of the Zippo lighter, also hosts the oldest continuously operating oil refinery in the world.    Also in Bradford, you have to drive around a crude oil well to use the drive-through at the McDonald's restaurant. So as you can see, we have a lot of oil wells in our community, and oil and gas production has been very important in many of our rural communities, and employs a lot of people in our communities.    Starting in the late 2000s, deep natural gas wells started to be drilled, what we call unconventional drilling, came to Pennsylvania. This created many, many jobs, a lot of increased spending at local hotels and retail stores. Between 2007 and 2014, $2.1 billion in state taxes were paid from this activity. In addition, we created, in Pennsylvania, an impact fee that is levied on each unconventional well that is drilled to provide for impacts to rural communities with 60 percent of that revenue going back to the local community, and 40 percent going to the state to address impacts such as infrastructure, the environment, housing, and emergency preparedness.    This has also had a significant effect on farmers at a time when many farmers were struggling just to pay their taxes. They could barely upgrade their equipment and expand their operations. The advent of unconventional drilling gave them additional revenue to be able to expand their operations. And instead of retiring the land, they were actually able to keep it in production. So it has really benefited farmers in our state.    However, we know that the industry is in some tough times right now with the low price of natural gas. The conventional industry, the number of wells drilled has been declining steadily, and that, coupled with the regulatory climate, has been difficult for the industry in Pennsylvania. For the unconventional industry, a few years ago, we had nearly 120 unconventional rigs operating in Pennsylvania. Now, today, we are down to about 20. So the industry has seen some tough times, and there are many people unemployed in the oil and gas industry. And as you can imagine, in communities where oil and gas is the major employer, this has been very difficult.    But what is next is we have to expand our pipeline network. We have to look for additional opportunities. We have two potential Marcellus-powered electrical plants that are going to go online in Pennsylvania, and one plant alone could provide energy for as many as one million homes. So the this is an opportunity for our state. Royal Dutch Shell is also looking at the possibility of opening an ethane cracker plant, just outside of Pittsburgh, which would put thousands of people to work.    So, in summary, rural communities, like the ones I represent, have long relied on the oil and gas industry to support our local economy. And as we know, virtually every American relies on the industry as well. It is important for us to work together, whether a state government or our national leaders, to make sure that we don't over-regulate the industry. We need reasonable, responsible, regulations, but this is an opportunity for us to provide good-paying jobs. And in Pennsylvania, we need those jobs desperately.    So I appreciate the opportunity. I have provided extensive testimony to the Committee, and I would be glad to answer any questions that any of the Members might have.</t>
   </si>
   <si>
+    <t>Sims</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Sims. Good morning, Chairman Conaway, Ranking Member, and distinguished Members of the Committee. Thank you for the opportunity to appear before you today and discuss the role of energy service companies in rural America. Please forgive my nervousness. I am just a small-town girl, and I am not used to this. So I will do my best.    Again, my name is Angie Sims. I currently serve as the President and CEO of Buster's Well Service. It is a company that my grandfather started in 1963. I am the third generation running that company.    At this time, we have a total of 19 employees. When I started in 1999, we had a total of 60 employees, and we were running 12 service rigs--pulling units--at the time, and have since declined due to the fall of the oil prices and just getting the business smaller and more attainable.    I am also testifying today on behalf of the Association of Energy Service Companies. The AESC was first established in 1956 in Odessa, Texas. The organization originally focused on well-servicing industries, but has grown to encompass the total energy industry, including upstream oil and gas services, such as wireline, coiled tubing, hot oilers, roustabout services, snubbing, swabbing, fracking, pressure pumping, and oil field trucking.    The vast majority of our 700+ member companies are small businesses and located in, and operating in, rural communities. My hometown of Kermit, Texas, is the county seat of Winkler County, Texas. The city was founded in 1910 and named after Kermit Roosevelt whose father, Teddy Roosevelt, had visited the area shortly before a hunting trip. Oil was discovered near Kermit in 1926 in the Hendrick oil field, and the city and its economy has been closely linked to oil production ever since. The Hendrick field is still producing to this day.    Like other businesses operating in rural America, our greatest strength is our people. They are hard-working and very loyal. Small businesses in rural areas must adhere to strict financial discipline, or as we call it, simple household economics. You don't spend more than you have, and you take care of what you have.    Similar to the agriculture and ranching operations, whose economics are often tied to commodity prices that we cannot control, oil field services go through boom and bust cycles, but it is our people and our commitment to each other and our communities that allows us to make it through the hard times and make responsible decisions in better times.    We are currently going through some difficult times. According to the monthly report by InghamEcon, LLC, the Texas Permian Basin Petroleum Index dropped to its lowest level since June of 2010. The rig counts are down by 50 percent--those are drilling rigs--compared to its year-ago level. The most recent weekly rig count showed the numbers have dropped again to 130, a decrease of 72 percent.    Despite the fact that we are currently suffering through this downturn due to low oil prices, the oil field services industries continue to provide good-paying jobs throughout rural America, and we are poised to grow again when production ramps back up.    In Texas, we have been through this before, and we are, undoubtedly, going to go through it again. But I want to give you some of the stats just to show the importance the industry has in my community and some of the investments we have been able to make as a result of the energy development in the oil field service industries.    Today, Kermit has close to 6,000 residents, and our county population sits around 8,000. While many different businesses operate in our area, the oil and gas industry is the mainstay of our income. There are 849 producing wells, producing leases, 117 producing operators, and 12,588 drilled wells in the county alone.    According to the County Tax Assessor and Collector for Winkler County, mineral values and property values have increased by well over $1 million from 2010 to 2014. The City of Kermit also saw huge increases in building permits, electrical permits, and plumbing permits. The local sales and use tax rose 110 percent between 2010 and 2014. Both of our school districts have enjoyed taxpayers agreeing to build new schools, and enrollment in both of those schools have gone up in the last years.    I am short on time. Thank you for your time, and I look forward to answering any questions.</t>
   </si>
   <si>
+    <t>Root</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Root. Chairman Conaway, Ranking Member Peterson, and Members of the Committee, it is an honor to speak to you regarding this important issue, and thank you very much for the invitation. I am Jackie Root from Lawrenceville, Pennsylvania. I speak today on behalf of the National Association of Royalty Owners, where I serve as the Pennsylvania state chapter President.    Even though our producing minerals may be in any of the 33 producing states, NARO members live in all 50 states. An estimated 8\\1/2\\ to 12 million citizens receive royalty income from the production of their private mineral rights. From a member survey a few years ago, the average NARO member is 60 years old, a widow, and makes less than $500 per month in royalty income. The United States is the only former colony that upon achieving independence, awarded the ownership of minerals to private citizens instead of to the state. This uniquely American model was suggested by Thomas Jefferson. His concept has helped make us a strong nation and is, today, enabling America's rise to become the world's dominant energy producer.    About 70 percent of the mineral estate in the lower 48 is private property owned by individual citizens. A study conducted by Montana University in 2012, estimated that roughly 77 percent of oil and 81 percent of natural gas produced onshore was produced on private property. According to the Energy Information Administration, the average price for oil is now about 59 percent less, and natural gas about 25 percent less. And this is a real significant hit on individuals, like myself, who rely on this income for part of our livelihood.    We have provided additional information on the ownership and impacts we see across the country in the written testimony, and I will spend the rest of my time on my personal story.    My husband, Cliff, and I are first generation farmers. Dairy was our commodity for 35 years, shifting to a cow/calf beef operation in 2009. For 24 years, in a crop field dubbed the gas well field, we mowed, planted, and harvested around a steel pipe that was the site of natural gas exploration well, drilled and plugged in 1948. In 2000, a landman approached us to lease that land once again for possible exploration, and we now host a producing Marcellus Shale well on our farm, just 1,200\x7f from that old pipe.    Our well was completed in 2008. In 2009 and 2010, 31 more wells were completed on well pads within our township. I estimate that over 700 royalty owners received checks each month in just our little township, including farmers, retirees, widows, young couples, businesses, churches, municipalities, and cemeteries. Like many farmers, we have used this income to pay off debt, change enterprises, help with college expenses, fund requirement accounts, and maybe buy a horse or two. The constant stress of fluctuating commodity prices and unpredictable weather is softened a bit with additional income from leasing, royalties, and pipeline right-of-way. Over the long-term, I believe natural gas development will actually preserve our precious open space; successful farmers will farm the land rather than subdivide it.    This income also finds its way into our local economy, and I can quickly name friends and neighbors so thankful for extra income that was life-changing, and it is not all about instant millionaires.    Current market conditions have curtailed new drilling projects, and the lack of new pipeline capacity has had a dramatic effect on natural gas prices. This time in 2012, we received $2.73 per mcf compared to just $1.48 this month. Royalty income is down, leasing is sparse, layoffs in the oil patch now include many of our local folks, and many businesses created during the boom are struggling.    We appreciated the July 2015 hearing this Committee conducted that led to repeal of the oil export ban, recognizing the need to participate in world markets.    Trading of LNG and ethane in world markets will be just as important to the Northeast with production of both wet and dry natural gas. Natural gas development in our township and other townships, just like it across Pennsylvania, has been a real success story. We hope that our leaders will support an energy policy that will keep this moving forward.    Reduced commodity prices have placed hardship on the oil and gas industry, service industries, Federal and state local tax collections, and private royalty owners. This is a result of the free market system that we know our members believe strongly in. We, therefore, ask this Committee to, please, keep this in mind when considering what could become harmful Federal policies like removal of the percentage depletion tax deductions that royalty owners have had the ability to utilize since the 1920s.    Thank you, again, for the opportunity to present the collective views of millions of private property owners, and I will be happy to answer any questions.</t>
   </si>
   <si>
@@ -151,6 +175,12 @@
     <t>412317</t>
   </si>
   <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Glenn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Thompson. Mr. Chairman, thank you so much for this hearing.    And thank you to the witnesses, for bringing your expertise to Washington on this issue. This is all about our rural economy, and I think that, obviously, the Agriculture Committee is committed to make sure we have a strong, robust, rural economy all across this country. And today, we are focusing on oil and gas.    Chairman Causer, land-grant universities play a critical role in our communities, specifically with research and services provided by extension services, extension activities. I know in Pennsylvania, we have been blessed to see much of this work applied to our robust agriculture industry, as well as more recent economic activity such as development of the Marcellus Shale. In your view, how have our land-grant university extension services activities been beneficial for farmers and landowners with relation to the Marcellus?</t>
   </si>
   <si>
@@ -193,6 +223,12 @@
     <t>412214</t>
   </si>
   <si>
+    <t>Walz</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Walz. Well, thank you, Mr. Chairman.    Thank you all for being here. I appreciate what you are saying in representing a rural district. Also, as a geographer, I understand that location is everything many times. And your states are blessed with, and our nation is blessed with resources that we can use to make ourselves energy independent, and that is not only good economically, it is good national security-wise.    I would take it just one step further. In my district, in southern Minnesota, we too are blessed with the ability to produce energy, and that comes in the form of wind, and solar, and biofuels. And I bring this up only because the issues you are talking about and the positive returns to the community are exactly the same things we see in that. And the cautions that some of you said, Ms. Root, about policies that infringe upon that, we need to be careful of.    We should not be in the business of picking winners and losers, and we should make sure that these industries have the opportunity. So I say that to my colleagues that I am appreciative, and we want to see your states thrive, but I also think we need to make sure that we are talking about the impact to rural communities from a variety of perspectives.    And I know this is not your area of expertise, but I am assuming you see some of these other energy sources also in Pennsylvania, Mr. Causer. If you can tell me, is it the same type of situation?</t>
   </si>
   <si>
@@ -220,6 +256,12 @@
     <t>412557</t>
   </si>
   <si>
+    <t>Kuster</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kuster. Thank you, Mr. Chairman.    And I just want to echo my colleague, that we don't have oil and gas wells in New Hampshire where I am from, but we do have, in the rural communities, particularly bioenergy is a very big piece for us. We burn a lot of wood and wood chips, and that is a big growing industry for my timber interests.    So I am interested in the siting issues, since we do have siting issues. And in particular, in New Hampshire right now, across the southern tier of my district, is the proposal for a very substantial natural gas pipeline. And this will be coming from the Marcellus Shale gas from Pennsylvania. It terminates in Dracut, Massachusetts. And if you know your New England geography, you might wonder why it goes to New Hampshire. And that is what we all are wondering now as well. It is proposed to cross 18 towns in my district. But we won't actually get the benefit of it.    So, not surprisingly, I have homeowners and community leaders very worked up about this pipeline. They are very, very concerned. And particularly not just environmental issues, it crosses back and forth in beautiful rivers and streams and protected areas. And it is not very well laid out, let me say.    So I am dealing with a lot of concern. But much more importantly for me it is a public safety issue for my communities. And in particular, I want to ask Representative Causer, because I know you have a background as a emergency service provider. So here is the situation: and these are very small towns, by the way. These are towns of 7,000 people. These are volunteer fire departments, so just to set the stage for what I am concerned about. And in particular, a compressor station in a town called New Ipswich that I have been to. Right next door to the elementary school is where it is proposed with children from kindergarten through 4th grade. So I just want to ask you--and thank you all for your public service. I think most of you have served the public in your various roles.    In this situation where the town does not have the appropriate resources to respond to a blow-down or venting or other incidents that might occur, what would you recommend? Do you think this is a smart place to put this compressor station? What would you recommend in rural communities with the volunteer first responders, how we would respond to a major incident?    And, by the way, just to give you a sense, this is probably 40 miles from any kind of substantial first responders in Manchester or Keene, New Hampshire.</t>
   </si>
   <si>
@@ -244,6 +286,12 @@
     <t>412400</t>
   </si>
   <si>
+    <t>Crawford</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Crawford. Thank you, Mr. Chairman.    Ms. Sims, Kermit, Texas, I am not entirely unfamiliar with west Texas, but I know it is a small town, and most of us on the Agriculture Committee know a little something about small towns.    Do you actually live in town, or do you live out in the country?</t>
   </si>
   <si>
@@ -385,12 +433,24 @@
     <t>412642</t>
   </si>
   <si>
+    <t>Ashford</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ashford. I don't have any questions, Mr. Chairman. Thanks.    The Chairman. All right. Mr. Yoho, for 5 minutes.</t>
   </si>
   <si>
     <t>412525</t>
   </si>
   <si>
+    <t>Yoho</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Mr. Chairman.    I appreciate you, all, being here.    Ms. Root, I see you are a cattle farmer. Congratulations. I am a veterinarian, worked on plenty of Herefords, and that is one of my favorite breeds.    What have the positive benefits been from the oil production in your area on ag, and what are the negatives that you have seen?</t>
   </si>
   <si>
@@ -526,6 +586,9 @@
     <t>412286</t>
   </si>
   <si>
+    <t>Kirkpatrick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Kirkpatrick. Thank you. I just have a couple of questions, if the Chairman doesn't mind.    The Chairman. Sure. Absolutely. You are recognized for 5 minutes.</t>
   </si>
   <si>
@@ -563,6 +626,12 @@
   </si>
   <si>
     <t>412558</t>
+  </si>
+  <si>
+    <t>Lujan Grisham</t>
+  </si>
+  <si>
+    <t>Michelle</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Lujan Grisham. Thank you, Mr. Chairman. Agriculture and the oil and gas sector are really important industries, certainly, in my state as well as for most of the Members on this Committee. And they both make substantial contributions. And in fact, ag and food processing industries contribute $10.6 billion to our economy. That is roughly 12 percent of our GDP. And the oil and gas industry do about $11.3 billion, so that is about 14 percent of our GDP. So I understand the aspect here that we want to make sure that these are coordinated, productive, partnering industries to the highest degree possible, given that they neighbor up, if you will, in most of the rural and frontier aspects of the country, and including in New Mexico.    You probably also are aware, the panel, and I know the Committee is, that in my state we are experiencing, like much of the Southwest, one of the worst droughts. We are part of a 100 year drought, and besides the fact that we are always on fire starting now through the fall, it is a significant factor for both these industries.    Do you have any thoughts or suggestions, given water scarcity issues in general, about ways in which both ag and oil and gas can be innovative in addressing the lack of water resources and not to put themselves in a position where they are actually competing for that same resource? I would be very interested in anyone on the panel's thoughts about that.</t>
@@ -950,7 +1019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H176"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -958,7 +1027,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -980,4205 +1049,4889 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G34" t="s">
+        <v>53</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G38" t="s">
+        <v>53</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G40" t="s">
+        <v>53</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G42" t="s">
+        <v>53</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G44" t="s">
+        <v>53</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G45" t="s">
+        <v>69</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G47" t="s">
+        <v>69</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G53" t="s">
+        <v>80</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G54" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G55" t="s">
+        <v>80</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G56" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G57" t="s">
+        <v>80</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G59" t="s">
+        <v>80</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G60" t="s">
+        <v>90</v>
+      </c>
       <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>75</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G62" t="s">
+        <v>90</v>
+      </c>
       <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>75</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G64" t="s">
+        <v>90</v>
+      </c>
       <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G65" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>75</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G66" t="s">
+        <v>90</v>
+      </c>
       <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G67" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>75</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G68" t="s">
+        <v>90</v>
+      </c>
       <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G69" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>75</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G70" t="s">
+        <v>90</v>
+      </c>
       <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G71" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>75</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G72" t="s">
+        <v>90</v>
+      </c>
       <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G73" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>75</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G74" t="s">
+        <v>90</v>
+      </c>
       <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G75" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>75</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G76" t="s">
+        <v>90</v>
+      </c>
       <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G77" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>75</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G78" t="s">
+        <v>90</v>
+      </c>
       <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G79" t="s">
+        <v>23</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>75</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G80" t="s">
+        <v>90</v>
+      </c>
       <c r="H80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G81" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>75</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G82" t="s">
+        <v>90</v>
+      </c>
       <c r="H82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G83" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G85" t="s">
+        <v>23</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G87" t="s">
+        <v>23</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
       <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G89" t="s">
+        <v>23</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
       <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G91" t="s">
+        <v>23</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G93" t="s">
+        <v>23</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>15</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G95" t="s">
+        <v>23</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
       <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G97" t="s">
+        <v>23</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G99" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>15</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G101" t="s">
+        <v>23</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
       <c r="H102" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G103" t="s">
+        <v>21</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>15</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G105" t="s">
+        <v>21</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>122</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G107" t="s">
+        <v>139</v>
+      </c>
       <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>124</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G108" t="s">
+        <v>143</v>
+      </c>
       <c r="H108" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>15</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G109" t="s">
+        <v>25</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>124</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G110" t="s">
+        <v>143</v>
+      </c>
       <c r="H110" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>15</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G111" t="s">
+        <v>25</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>124</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G112" t="s">
+        <v>143</v>
+      </c>
       <c r="H112" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>15</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G113" t="s">
+        <v>25</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>124</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G114" t="s">
+        <v>143</v>
+      </c>
       <c r="H114" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>15</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>124</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G116" t="s">
+        <v>143</v>
+      </c>
       <c r="H116" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I116" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>15</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>23</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>124</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G118" t="s">
+        <v>143</v>
+      </c>
       <c r="H118" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I118" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>15</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>23</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>124</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G120" t="s">
+        <v>143</v>
+      </c>
       <c r="H120" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I120" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>15</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G121" t="s">
+        <v>21</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>124</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G122" t="s">
+        <v>143</v>
+      </c>
       <c r="H122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I122" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>15</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G123" t="s">
+        <v>25</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>124</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G124" t="s">
+        <v>143</v>
+      </c>
       <c r="H124" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I124" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>15</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G125" t="s">
+        <v>21</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>124</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G126" t="s">
+        <v>143</v>
+      </c>
       <c r="H126" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I126" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>44</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G127" t="s">
+        <v>53</v>
+      </c>
       <c r="H127" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I127" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>15</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G128" t="s">
+        <v>25</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>44</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G129" t="s">
+        <v>53</v>
+      </c>
       <c r="H129" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I129" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>15</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G130" t="s">
+        <v>25</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G131" t="s">
+        <v>53</v>
+      </c>
       <c r="H131" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I131" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>15</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G132" t="s">
+        <v>21</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>44</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G133" t="s">
+        <v>53</v>
+      </c>
       <c r="H133" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>15</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G134" t="s">
+        <v>21</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G135" t="s">
+        <v>53</v>
+      </c>
       <c r="H135" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I135" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>58</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G136" t="s">
+        <v>69</v>
+      </c>
       <c r="H136" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I136" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>122</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G137" t="s">
+        <v>139</v>
+      </c>
       <c r="H137" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I137" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>122</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G138" t="s">
+        <v>139</v>
+      </c>
       <c r="H138" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I138" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>15</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G139" t="s">
+        <v>23</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>15</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G140" t="s">
+        <v>23</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>15</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G141" t="s">
+        <v>23</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>15</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G142" t="s">
+        <v>23</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>15</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G143" t="s">
+        <v>23</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>15</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G144" t="s">
+        <v>23</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>15</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G145" t="s">
+        <v>23</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>15</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G146" t="s">
+        <v>23</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>15</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G147" t="s">
+        <v>23</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G148" t="s">
+        <v>23</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>15</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G149" t="s">
+        <v>23</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>15</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G150" t="s">
+        <v>23</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>15</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G151" t="s">
+        <v>23</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>169</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G152" t="s">
+        <v>190</v>
+      </c>
       <c r="H152" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I152" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>169</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G153" t="s">
+        <v>190</v>
+      </c>
       <c r="H153" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I153" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>15</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G154" t="s">
+        <v>23</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>169</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G155" t="s">
+        <v>190</v>
+      </c>
       <c r="H155" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I155" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>15</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G156" t="s">
+        <v>25</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>169</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G157" t="s">
+        <v>190</v>
+      </c>
       <c r="H157" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I157" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>15</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
+        <v>25</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>169</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G159" t="s">
+        <v>190</v>
+      </c>
       <c r="H159" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I159" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>15</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G160" t="s">
+        <v>25</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>169</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G161" t="s">
+        <v>190</v>
+      </c>
       <c r="H161" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I161" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>15</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G162" t="s">
+        <v>21</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>169</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G163" t="s">
+        <v>190</v>
+      </c>
       <c r="H163" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I163" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>182</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>203</v>
+      </c>
+      <c r="G164" t="s">
+        <v>204</v>
+      </c>
       <c r="H164" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>205</v>
+      </c>
+      <c r="I164" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>15</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G165" t="s">
+        <v>23</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>182</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>203</v>
+      </c>
+      <c r="G166" t="s">
+        <v>204</v>
+      </c>
       <c r="H166" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>205</v>
+      </c>
+      <c r="I166" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>15</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G167" t="s">
+        <v>23</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>182</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>203</v>
+      </c>
+      <c r="G168" t="s">
+        <v>204</v>
+      </c>
       <c r="H168" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>205</v>
+      </c>
+      <c r="I168" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>15</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G169" t="s">
+        <v>23</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>182</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>203</v>
+      </c>
+      <c r="G170" t="s">
+        <v>204</v>
+      </c>
       <c r="H170" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>205</v>
+      </c>
+      <c r="I170" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>15</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G171" t="s">
+        <v>21</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>182</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>203</v>
+      </c>
+      <c r="G172" t="s">
+        <v>204</v>
+      </c>
       <c r="H172" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>205</v>
+      </c>
+      <c r="I172" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>15</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G173" t="s">
+        <v>21</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>182</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>203</v>
+      </c>
+      <c r="G174" t="s">
+        <v>204</v>
+      </c>
       <c r="H174" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>205</v>
+      </c>
+      <c r="I174" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>15</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G175" t="s">
+        <v>25</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>182</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>203</v>
+      </c>
+      <c r="G176" t="s">
+        <v>204</v>
+      </c>
       <c r="H176" t="s">
-        <v>195</v>
+        <v>205</v>
+      </c>
+      <c r="I176" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99852.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99852.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412536</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Davis</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>400316</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Peterson</t>
@@ -1019,7 +1028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:J176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,7 +1036,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,4886 +1061,5220 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I34" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G45" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G47" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I47" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>23</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G53" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>21</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G55" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I55" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>21</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G57" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>21</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G59" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G60" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G62" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I62" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G64" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I64" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G66" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I66" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>26</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G68" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I68" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" t="s">
-        <v>23</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G70" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I70" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s">
-        <v>23</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G72" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s">
-        <v>23</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>26</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G74" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I74" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>23</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G76" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I76" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s">
-        <v>23</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>26</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G78" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I78" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s">
-        <v>23</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>26</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G80" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I80" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s">
-        <v>23</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G82" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I82" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s">
-        <v>23</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>26</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s">
-        <v>23</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>26</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" t="s">
-        <v>23</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>26</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" t="s">
-        <v>23</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>26</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" t="s">
-        <v>23</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>26</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s">
-        <v>23</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>26</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" t="s">
-        <v>23</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>26</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" t="s">
-        <v>23</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>26</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" t="s">
-        <v>23</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>26</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" t="s">
-        <v>23</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>26</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s">
-        <v>21</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" t="s">
-        <v>21</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>24</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G107" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I107" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G108" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I108" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J108" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" t="s">
-        <v>25</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>28</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G110" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I110" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="J110" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s">
-        <v>25</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>28</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G112" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I112" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J112" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" t="s">
-        <v>25</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>28</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G114" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I114" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J114" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" t="s">
-        <v>23</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>26</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G116" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I116" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
-      </c>
-      <c r="G117" t="s">
-        <v>23</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>26</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G118" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I118" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J118" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" t="s">
-        <v>23</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>26</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G120" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I120" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J120" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s">
-        <v>21</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>24</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G122" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I122" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J122" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s">
-        <v>25</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>28</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G124" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I124" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J124" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" t="s">
-        <v>21</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>24</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G126" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I126" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G127" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I127" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J127" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
-      </c>
-      <c r="G128" t="s">
-        <v>25</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>28</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G129" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I129" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J129" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" t="s">
-        <v>25</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>28</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G131" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I131" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J131" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>20</v>
-      </c>
-      <c r="G132" t="s">
-        <v>21</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>24</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G133" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I133" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J133" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>20</v>
-      </c>
-      <c r="G134" t="s">
-        <v>21</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>24</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G135" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I135" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J135" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G136" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I136" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J136" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G137" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I137" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J137" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G138" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I138" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J138" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>20</v>
-      </c>
-      <c r="G139" t="s">
-        <v>23</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>26</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>20</v>
-      </c>
-      <c r="G140" t="s">
-        <v>23</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>26</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>20</v>
-      </c>
-      <c r="G141" t="s">
-        <v>23</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>26</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" t="s">
-        <v>23</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>26</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" t="s">
-        <v>23</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>26</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>20</v>
-      </c>
-      <c r="G144" t="s">
-        <v>23</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>26</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>20</v>
-      </c>
-      <c r="G145" t="s">
-        <v>23</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>26</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>20</v>
-      </c>
-      <c r="G146" t="s">
-        <v>23</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>26</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>20</v>
-      </c>
-      <c r="G147" t="s">
-        <v>23</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>26</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>20</v>
-      </c>
-      <c r="G148" t="s">
-        <v>23</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>26</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>20</v>
-      </c>
-      <c r="G149" t="s">
-        <v>23</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>26</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>20</v>
-      </c>
-      <c r="G150" t="s">
-        <v>23</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>26</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>20</v>
-      </c>
-      <c r="G151" t="s">
-        <v>23</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>26</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G152" t="s">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="I152" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J152" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G153" t="s">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="I153" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J153" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>20</v>
-      </c>
-      <c r="G154" t="s">
-        <v>23</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>26</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G155" t="s">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="I155" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J155" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>20</v>
-      </c>
-      <c r="G156" t="s">
-        <v>25</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>28</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G157" t="s">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="I157" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J157" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>20</v>
-      </c>
-      <c r="G158" t="s">
-        <v>25</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>28</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G159" t="s">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="I159" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J159" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>20</v>
-      </c>
-      <c r="G160" t="s">
-        <v>25</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>28</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G161" t="s">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="I161" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J161" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>20</v>
-      </c>
-      <c r="G162" t="s">
-        <v>21</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>24</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G163" t="s">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="I163" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J163" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G164" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I164" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J164" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>20</v>
-      </c>
-      <c r="G165" t="s">
-        <v>23</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>26</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G166" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I166" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="167" spans="1:9">
+      <c r="J166" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>20</v>
-      </c>
-      <c r="G167" t="s">
-        <v>23</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>26</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G168" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I168" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J168" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>20</v>
-      </c>
-      <c r="G169" t="s">
-        <v>23</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>26</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G170" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I170" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J170" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>20</v>
-      </c>
-      <c r="G171" t="s">
-        <v>21</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>24</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G172" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I172" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J172" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>20</v>
-      </c>
-      <c r="G173" t="s">
-        <v>21</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>24</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G174" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="H174" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I174" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J174" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>20</v>
-      </c>
-      <c r="G175" t="s">
-        <v>25</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>28</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G176" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="H176" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I176" t="s">
-        <v>218</v>
+        <v>208</v>
+      </c>
+      <c r="J176" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
